--- a/TestData/VT-CC-Transactions.xlsx
+++ b/TestData/VT-CC-Transactions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UIPath\VPSAutomation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF5D6F9-45AB-4AFA-ADE2-D94E555666CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD5EC882-2205-4C32-84A5-D047D1BF5D53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26610" yWindow="3450" windowWidth="24525" windowHeight="14010" xr2:uid="{38671F56-4198-4E87-B365-8D39954119AF}"/>
+    <workbookView xWindow="1035" yWindow="2490" windowWidth="24525" windowHeight="14010" xr2:uid="{38671F56-4198-4E87-B365-8D39954119AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="76">
   <si>
     <t>Result</t>
   </si>
@@ -231,6 +231,39 @@
   </si>
   <si>
     <t>KABIR PATTIY</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Chelsee Fakir</t>
+  </si>
+  <si>
+    <t>1856 Mangyt Road</t>
+  </si>
+  <si>
+    <t>CHELSEE FAKIR</t>
+  </si>
+  <si>
+    <t>VP1</t>
+  </si>
+  <si>
+    <t>Transaction Successful</t>
+  </si>
+  <si>
+    <t>Transaction Succ8essful</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>02/25/2024 22:16:38</t>
+  </si>
+  <si>
+    <t>02/25/2024 22:17:46</t>
   </si>
 </sst>
 </file>
@@ -281,12 +314,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -601,15 +633,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62BDACBA-4B13-42E3-A412-0F191C1DCB1E}">
-  <dimension ref="A1:AE3"/>
+  <dimension ref="A1:AF4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AE3" sqref="AE3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="12.140625" style="1"/>
+    <col min="1" max="1" width="12.140625" style="1"/>
+    <col min="2" max="2" width="20.5703125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="12.140625" style="1"/>
     <col min="5" max="5" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22" style="1" customWidth="1"/>
@@ -621,13 +655,14 @@
     <col min="16" max="16" width="26.42578125" style="1" customWidth="1"/>
     <col min="17" max="17" width="24.7109375" style="1" customWidth="1"/>
     <col min="18" max="28" width="12.140625" style="1"/>
-    <col min="29" max="29" width="20.42578125" style="1" customWidth="1"/>
-    <col min="30" max="30" width="12.140625" style="1"/>
-    <col min="31" max="31" width="24.7109375" style="1" customWidth="1"/>
-    <col min="32" max="16384" width="12.140625" style="1"/>
+    <col min="29" max="29" width="29.28515625" style="1" customWidth="1"/>
+    <col min="30" max="30" width="20.42578125" style="1" customWidth="1"/>
+    <col min="31" max="31" width="12.140625" style="1"/>
+    <col min="32" max="32" width="24.7109375" style="1" customWidth="1"/>
+    <col min="33" max="16384" width="12.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -713,16 +748,25 @@
         <v>27</v>
       </c>
       <c r="AC1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="D2" s="1" t="s">
         <v>31</v>
       </c>
@@ -759,7 +803,7 @@
       <c r="O2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="P2" t="s">
         <v>62</v>
       </c>
       <c r="Q2" s="1" t="s">
@@ -799,18 +843,21 @@
         <v>51</v>
       </c>
       <c r="AC2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AD2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AF2" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="D3" s="1" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>32</v>
@@ -845,7 +892,7 @@
       <c r="O3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="P3" t="s">
         <v>62</v>
       </c>
       <c r="Q3" s="1" t="s">
@@ -885,13 +932,111 @@
         <v>51</v>
       </c>
       <c r="AC3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AD3" s="1" t="s">
+      <c r="AE3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AE3" s="1" t="s">
+      <c r="AF3" s="1" t="s">
         <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P4" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/VT-CC-Transactions.xlsx
+++ b/TestData/VT-CC-Transactions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UIPath\VPSAutomation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD5EC882-2205-4C32-84A5-D047D1BF5D53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EA4C291-9D68-4715-B142-F4F4C395B1BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1035" yWindow="2490" windowWidth="24525" windowHeight="14010" xr2:uid="{38671F56-4198-4E87-B365-8D39954119AF}"/>
+    <workbookView xWindow="37290" yWindow="2685" windowWidth="15360" windowHeight="8670" xr2:uid="{38671F56-4198-4E87-B365-8D39954119AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -260,10 +260,10 @@
     <t>Pass</t>
   </si>
   <si>
-    <t>02/25/2024 22:16:38</t>
-  </si>
-  <si>
     <t>02/25/2024 22:17:46</t>
+  </si>
+  <si>
+    <t>04/25/2024 19:57:28</t>
   </si>
 </sst>
 </file>
@@ -765,7 +765,7 @@
         <v>72</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>31</v>
@@ -949,7 +949,7 @@
         <v>73</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>31</v>
